--- a/CASUAL/LA ONT/MANALO, ABEGAIL TOPACIO.xlsx
+++ b/CASUAL/LA ONT/MANALO, ABEGAIL TOPACIO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-7-0)</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +970,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,7 +1034,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,7 +1094,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,7 +1160,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1223,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1321,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1380,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1445,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1488,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1560,7 +1563,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1749,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1815,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1873,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1939,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +1995,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2070,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2113,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2179,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2235,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2683,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,7 +2846,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.375</v>
+        <v>31.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3330,11 +3333,15 @@
       <c r="A33" s="40">
         <v>44682</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>0.875</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
@@ -5265,12 +5272,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/MANALO, ABEGAIL TOPACIO.xlsx
+++ b/CASUAL/LA ONT/MANALO, ABEGAIL TOPACIO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>UT(0-7-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -970,7 +976,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1040,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1100,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1166,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1229,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1327,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1386,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1451,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1488,7 +1494,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1569,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1755,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1821,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1879,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1945,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2001,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2076,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2119,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2185,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2241,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2337,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2678,12 +2684,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2852,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.5</v>
+        <v>30.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3454,19 +3460,19 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="39"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
@@ -3475,7 +3481,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13">
@@ -3495,16 +3501,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
       <c r="D40" s="39">
-        <v>5</v>
+        <v>0.375</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
@@ -3518,17 +3524,23 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="39">
+        <v>5</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
@@ -3536,19 +3548,19 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
-        <v>44957</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="39"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39">
+        <v>0.375</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
@@ -3556,19 +3568,17 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>44985</v>
+      <c r="A43" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -3577,11 +3587,9 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>55</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
@@ -3595,13 +3603,11 @@
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="49">
-        <v>44996</v>
-      </c>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45046</v>
+        <v>44985</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13">
@@ -3621,9 +3627,11 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B46" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
@@ -3637,11 +3645,13 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="49">
+        <v>44996</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45107</v>
+        <v>45046</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -3661,17 +3671,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39">
-        <v>5</v>
-      </c>
+      <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -3681,13 +3687,11 @@
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45169</v>
+        <v>45107</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
@@ -3707,13 +3711,17 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B50" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C50" s="13">
         <v>1.25</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="39">
+        <v>5</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
@@ -3723,21 +3731,19 @@
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>45169</v>
+      </c>
+      <c r="B51" s="20"/>
       <c r="C51" s="13">
         <v>1.25</v>
       </c>
-      <c r="D51" s="39">
-        <v>1</v>
-      </c>
+      <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13">
@@ -3747,13 +3753,11 @@
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="49">
-        <v>45219</v>
-      </c>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45260</v>
+        <v>45199</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -3773,34 +3777,44 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+        <v>45230</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="39">
+        <v>1</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="49">
+        <v>45219</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
-        <v>59</v>
+      <c r="A54" s="40">
+        <v>45260</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -3809,7 +3823,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3826,8 +3840,8 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
-        <v>45351</v>
+      <c r="A56" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3845,7 +3859,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45382</v>
+        <v>45322</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3863,7 +3877,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3881,7 +3895,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3899,7 +3913,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3917,7 +3931,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3935,7 +3949,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3953,7 +3967,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45565</v>
+        <v>45504</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3971,7 +3985,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -3989,7 +4003,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45626</v>
+        <v>45565</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4007,7 +4021,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45657</v>
+        <v>45596</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4025,7 +4039,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45688</v>
+        <v>45626</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4043,7 +4057,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45716</v>
+        <v>45657</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4061,7 +4075,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45747</v>
+        <v>45688</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4079,7 +4093,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45777</v>
+        <v>45716</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4097,7 +4111,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45808</v>
+        <v>45747</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4115,7 +4129,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45838</v>
+        <v>45777</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4133,7 +4147,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45869</v>
+        <v>45808</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4151,7 +4165,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45900</v>
+        <v>45838</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4169,7 +4183,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45930</v>
+        <v>45869</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4187,7 +4201,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45961</v>
+        <v>45900</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4205,7 +4219,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45991</v>
+        <v>45930</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4223,7 +4237,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46022</v>
+        <v>45961</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4241,7 +4255,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46053</v>
+        <v>45991</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4259,7 +4273,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4277,7 +4291,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46112</v>
+        <v>46053</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4295,7 +4309,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46142</v>
+        <v>46081</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4313,7 +4327,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46173</v>
+        <v>46112</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4331,7 +4345,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46203</v>
+        <v>46142</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4349,7 +4363,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46234</v>
+        <v>46173</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4367,7 +4381,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46265</v>
+        <v>46203</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4385,7 +4399,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46295</v>
+        <v>46234</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4403,7 +4417,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46326</v>
+        <v>46265</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4421,7 +4435,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46356</v>
+        <v>46295</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4439,7 +4453,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46387</v>
+        <v>46326</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4457,7 +4471,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46418</v>
+        <v>46356</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4475,7 +4489,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46446</v>
+        <v>46387</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4493,7 +4507,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46477</v>
+        <v>46418</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4511,7 +4525,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46507</v>
+        <v>46446</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4529,7 +4543,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46538</v>
+        <v>46477</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4547,7 +4561,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46568</v>
+        <v>46507</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4565,7 +4579,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46599</v>
+        <v>46538</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4583,7 +4597,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46630</v>
+        <v>46568</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4601,7 +4615,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46660</v>
+        <v>46599</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4619,7 +4633,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46691</v>
+        <v>46630</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4637,7 +4651,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46721</v>
+        <v>46660</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4655,7 +4669,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46752</v>
+        <v>46691</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4673,7 +4687,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46783</v>
+        <v>46721</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4691,7 +4705,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46812</v>
+        <v>46752</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4709,7 +4723,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46843</v>
+        <v>46783</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4727,7 +4741,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46873</v>
+        <v>46812</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4745,7 +4759,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46904</v>
+        <v>46843</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4763,7 +4777,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46934</v>
+        <v>46873</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4781,7 +4795,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46965</v>
+        <v>46904</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4799,7 +4813,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46996</v>
+        <v>46934</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4817,7 +4831,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47026</v>
+        <v>46965</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4835,7 +4849,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47057</v>
+        <v>46996</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4853,7 +4867,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47087</v>
+        <v>47026</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4871,7 +4885,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47118</v>
+        <v>47057</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4889,7 +4903,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47149</v>
+        <v>47087</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4907,7 +4921,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47177</v>
+        <v>47118</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4924,7 +4938,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>47149</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -4940,7 +4956,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>47177</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5148,20 +5166,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5272,12 +5322,12 @@
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/MANALO, ABEGAIL TOPACIO.xlsx
+++ b/CASUAL/LA ONT/MANALO, ABEGAIL TOPACIO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>01/06,07/2024</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -976,7 +979,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,7 +1043,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1103,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1169,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1232,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1330,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1389,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1454,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1497,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1572,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1758,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1824,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1882,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1948,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2004,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2079,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2122,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2188,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2244,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,9 +2690,9 @@
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2865,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.75</v>
+        <v>41.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3861,7 +3864,9 @@
       <c r="A57" s="40">
         <v>45322</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
@@ -3870,10 +3875,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="39">
+        <v>2</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
